--- a/Code/Results/Cases/Case_2_236/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_236/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.629343822536498</v>
+        <v>1.305921270099134</v>
       </c>
       <c r="C2">
-        <v>0.4584368617709913</v>
+        <v>0.2152587901791208</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04057582189526476</v>
+        <v>0.09917698049238033</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.9569553893211236</v>
+        <v>1.1768764079997</v>
       </c>
       <c r="H2">
-        <v>0.6271138697317298</v>
+        <v>1.128060550239411</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1485834716484575</v>
+        <v>0.191105749164862</v>
       </c>
       <c r="M2">
-        <v>0.4338108813226214</v>
+        <v>0.2723799715095581</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.280573272529011</v>
+        <v>1.2105800307354</v>
       </c>
       <c r="C3">
-        <v>0.4107032145235792</v>
+        <v>0.1994966497811959</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04159777639764717</v>
+        <v>0.09978732481234609</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.9005361085627186</v>
+        <v>1.175406406532517</v>
       </c>
       <c r="H3">
-        <v>0.6118875171778626</v>
+        <v>1.134412510248467</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1347071365592427</v>
+        <v>0.1886071104622502</v>
       </c>
       <c r="M3">
-        <v>0.378070648708011</v>
+        <v>0.2579451600480311</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.068451070928347</v>
+        <v>1.152527770935308</v>
       </c>
       <c r="C4">
-        <v>0.3814736736625548</v>
+        <v>0.1897371273770716</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04225640836882438</v>
+        <v>0.1001838364091892</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.8691947366295096</v>
+        <v>1.175547655107906</v>
       </c>
       <c r="H4">
-        <v>0.6043481682347931</v>
+        <v>1.139043655788385</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1263955503261016</v>
+        <v>0.1871687783696316</v>
       </c>
       <c r="M4">
-        <v>0.3442457673814232</v>
+        <v>0.2492056783358407</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.982442508255986</v>
+        <v>1.128994022145889</v>
       </c>
       <c r="C5">
-        <v>0.3695734944836317</v>
+        <v>0.1857395975149814</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04253258769537638</v>
+        <v>0.1003508996730308</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.8571889056426443</v>
+        <v>1.175866309931621</v>
       </c>
       <c r="H5">
-        <v>0.6017014829634348</v>
+        <v>1.14111419861193</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1230565720760097</v>
+        <v>0.1866067537436464</v>
       </c>
       <c r="M5">
-        <v>0.3305493926276455</v>
+        <v>0.2456753893139592</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.968184887666382</v>
+        <v>1.125093703362666</v>
       </c>
       <c r="C6">
-        <v>0.3675979057399275</v>
+        <v>0.1850745774457323</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04257891562419203</v>
+        <v>0.1003789717804285</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.855239831466406</v>
+        <v>1.175934951233671</v>
       </c>
       <c r="H6">
-        <v>0.6012868915253762</v>
+        <v>1.141469067531432</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1225049179243811</v>
+        <v>0.1865148862422075</v>
       </c>
       <c r="M6">
-        <v>0.3282800454923844</v>
+        <v>0.2450910687807593</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.067289472679136</v>
+        <v>1.152209887930553</v>
       </c>
       <c r="C7">
-        <v>0.3813131498519056</v>
+        <v>0.1896832980009719</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04226010157728644</v>
+        <v>0.100186067274169</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.8690298012619309</v>
+        <v>1.175550897278384</v>
       </c>
       <c r="H7">
-        <v>0.6043107879656162</v>
+        <v>1.139070838304988</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1263503306621701</v>
+        <v>0.1871611010883925</v>
       </c>
       <c r="M7">
-        <v>0.3440607153192587</v>
+        <v>0.2491579415439418</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.508619844159114</v>
+        <v>1.272946597811767</v>
       </c>
       <c r="C8">
-        <v>0.4419563374898132</v>
+        <v>0.2098409446449239</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04092169539329127</v>
+        <v>0.09938291769764662</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.9367771478946452</v>
+        <v>1.176152065784933</v>
       </c>
       <c r="H8">
-        <v>0.6214698504761742</v>
+        <v>1.130098677394571</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1437528900365734</v>
+        <v>0.1902243292102526</v>
       </c>
       <c r="M8">
-        <v>0.4145005050158517</v>
+        <v>0.2673772310109257</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.393922745859754</v>
+        <v>1.513577177098398</v>
       </c>
       <c r="C9">
-        <v>0.5619483187873868</v>
+        <v>0.2487231174117142</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03854668314360854</v>
+        <v>0.09798010131798585</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>1.098955209997641</v>
+        <v>1.18567754578207</v>
       </c>
       <c r="H9">
-        <v>0.6709231451413302</v>
+        <v>1.118328112427434</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1797502946854053</v>
+        <v>0.1969920609151359</v>
       </c>
       <c r="M9">
-        <v>0.5564524635576262</v>
+        <v>0.3040855089522907</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.062340762094948</v>
+        <v>1.692742716562236</v>
       </c>
       <c r="C10">
-        <v>0.6514536579182675</v>
+        <v>0.2768981162372768</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03695764468999296</v>
+        <v>0.09705372474671325</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>1.240799672642964</v>
+        <v>1.197855598500269</v>
       </c>
       <c r="H10">
-        <v>0.7191078193960436</v>
+        <v>1.113264191277864</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2076708781582255</v>
+        <v>0.2024293592131556</v>
       </c>
       <c r="M10">
-        <v>0.6640746293494217</v>
+        <v>0.3316561037249528</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.371811692038477</v>
+        <v>1.774770753947621</v>
       </c>
       <c r="C11">
-        <v>0.6926418917436763</v>
+        <v>0.2896314006033265</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03626955392627706</v>
+        <v>0.09665478927531357</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>1.311468124748956</v>
+        <v>1.204540266743294</v>
       </c>
       <c r="H11">
-        <v>0.744160131874736</v>
+        <v>1.111746017384377</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2207759326937406</v>
+        <v>0.205004252476499</v>
       </c>
       <c r="M11">
-        <v>0.7140101892247799</v>
+        <v>0.3443301952085491</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.489916483568095</v>
+        <v>1.805908138595839</v>
       </c>
       <c r="C12">
-        <v>0.708323407523153</v>
+        <v>0.2944411438116674</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03601408691191799</v>
+        <v>0.0965069444256591</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>1.339226355411995</v>
+        <v>1.207237761854913</v>
       </c>
       <c r="H12">
-        <v>0.7541501439636136</v>
+        <v>1.111284653026019</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2258043324607968</v>
+        <v>0.2059938970759561</v>
       </c>
       <c r="M12">
-        <v>0.7330836989354665</v>
+        <v>0.3491485569100092</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.464437450784999</v>
+        <v>1.799198808132758</v>
       </c>
       <c r="C13">
-        <v>0.7049420717349051</v>
+        <v>0.293405817266148</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03606887787299762</v>
+        <v>0.09653864224130015</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>1.333201791774144</v>
+        <v>1.206649393711757</v>
       </c>
       <c r="H13">
-        <v>0.7519753284649084</v>
+        <v>1.111378957145007</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2247183178883461</v>
+        <v>0.2057801105451063</v>
       </c>
       <c r="M13">
-        <v>0.7289681821650831</v>
+        <v>0.3481099938574701</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.381509063501539</v>
+        <v>1.777330940935144</v>
       </c>
       <c r="C14">
-        <v>0.6939302252314121</v>
+        <v>0.290027343316325</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03624843372320274</v>
+        <v>0.09664256144061811</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>1.31373111532244</v>
+        <v>1.20475885247285</v>
       </c>
       <c r="H14">
-        <v>0.7449716064598704</v>
+        <v>1.111705781852351</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2211882561268084</v>
+        <v>0.2050853787473272</v>
       </c>
       <c r="M14">
-        <v>0.7155759480272863</v>
+        <v>0.3447262249636793</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.330836531931652</v>
+        <v>1.763946018523882</v>
       </c>
       <c r="C15">
-        <v>0.687196672699173</v>
+        <v>0.2879563566741581</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03635908390064957</v>
+        <v>0.09670663446294914</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>1.301938300921563</v>
+        <v>1.203622525409202</v>
       </c>
       <c r="H15">
-        <v>0.7407488312136365</v>
+        <v>1.111920774639941</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2190348043494623</v>
+        <v>0.2046617353664715</v>
       </c>
       <c r="M15">
-        <v>0.7073949151448957</v>
+        <v>0.3426560367490481</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.042236278488531</v>
+        <v>1.687392523367123</v>
       </c>
       <c r="C16">
-        <v>0.648772775999447</v>
+        <v>0.2760642787260394</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03700332082040558</v>
+        <v>0.09708024766480927</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>1.236314407746931</v>
+        <v>1.197441907287924</v>
       </c>
       <c r="H16">
-        <v>0.717538005891015</v>
+        <v>1.113379262856228</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2068231999874115</v>
+        <v>0.2022631252080203</v>
       </c>
       <c r="M16">
-        <v>0.6608328382977007</v>
+        <v>0.3308304768457475</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.866666726813435</v>
+        <v>1.640563602251916</v>
       </c>
       <c r="C17">
-        <v>0.6253329811464141</v>
+        <v>0.2687474127482119</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0374075109319556</v>
+        <v>0.09731519800382427</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>1.197706899865722</v>
+        <v>1.193944602280197</v>
       </c>
       <c r="H17">
-        <v>0.7041369951011518</v>
+        <v>1.114475585448986</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1994404495078328</v>
+        <v>0.2008176373387585</v>
       </c>
       <c r="M17">
-        <v>0.6325347685936507</v>
+        <v>0.3236096832307425</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.766183318640174</v>
+        <v>1.6136782526915</v>
       </c>
       <c r="C18">
-        <v>0.6118943355510282</v>
+        <v>0.2645310724985563</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03764325664822943</v>
+        <v>0.09745245147887749</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>1.176071497757761</v>
+        <v>1.192040708133845</v>
       </c>
       <c r="H18">
-        <v>0.696720476991942</v>
+        <v>1.115180054058754</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1952315885816205</v>
+        <v>0.1999957787090807</v>
       </c>
       <c r="M18">
-        <v>0.6163489451283723</v>
+        <v>0.3194689085144589</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.732243214450307</v>
+        <v>1.604583830898662</v>
       </c>
       <c r="C19">
-        <v>0.6073512054746573</v>
+        <v>0.2631021414604788</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0377236342875551</v>
+        <v>0.09749928688920784</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>1.168840850857293</v>
+        <v>1.191414526845222</v>
       </c>
       <c r="H19">
-        <v>0.6942579067521706</v>
+        <v>1.115431248201816</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1938127595391563</v>
+        <v>0.1997191513032277</v>
       </c>
       <c r="M19">
-        <v>0.6108835718915699</v>
+        <v>0.3180690501972094</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.885303754816391</v>
+        <v>1.645543509707636</v>
       </c>
       <c r="C20">
-        <v>0.6278235917055213</v>
+        <v>0.2695271207219605</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03736414548830902</v>
+        <v>0.09728996817996916</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>1.201756891533364</v>
+        <v>1.194305742558697</v>
       </c>
       <c r="H20">
-        <v>0.7055330348883899</v>
+        <v>1.114351228156607</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.200222421271917</v>
+        <v>0.20097052382512</v>
       </c>
       <c r="M20">
-        <v>0.6355376210695027</v>
+        <v>0.3243770623592113</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.405841135237551</v>
+        <v>1.783752026471916</v>
       </c>
       <c r="C21">
-        <v>0.6971622379208782</v>
+        <v>0.2910200110618746</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0361955546152628</v>
+        <v>0.0966119504426175</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>1.319422073005512</v>
+        <v>1.205309628586974</v>
       </c>
       <c r="H21">
-        <v>0.7470146606740684</v>
+        <v>1.111606699477051</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2222232692057418</v>
+        <v>0.2052890423736642</v>
       </c>
       <c r="M21">
-        <v>0.7195049211988405</v>
+        <v>0.3457196056540326</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.751450705489844</v>
+        <v>1.874517172741719</v>
       </c>
       <c r="C22">
-        <v>0.7429803667395163</v>
+        <v>0.3049964561109846</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03546158301866797</v>
+        <v>0.09618761074574</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>1.402200927563513</v>
+        <v>1.213470504556483</v>
       </c>
       <c r="H22">
-        <v>0.7770876585293536</v>
+        <v>1.110475037205362</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.236989851710689</v>
+        <v>0.2081964777498797</v>
       </c>
       <c r="M22">
-        <v>0.775351158713498</v>
+        <v>0.3597786813909281</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.566447754056128</v>
+        <v>1.8260341339452</v>
       </c>
       <c r="C23">
-        <v>0.7184744737144513</v>
+        <v>0.2975434196389131</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03585055775072454</v>
+        <v>0.09641237301511685</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307915566</v>
       </c>
       <c r="G23">
-        <v>1.357441149866247</v>
+        <v>1.209025701917199</v>
       </c>
       <c r="H23">
-        <v>0.7607470075444667</v>
+        <v>1.111018253386931</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2290703867919177</v>
+        <v>0.2066369433694746</v>
       </c>
       <c r="M23">
-        <v>0.7454478816553873</v>
+        <v>0.3522649890321645</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.876876550976704</v>
+        <v>1.643291977587296</v>
       </c>
       <c r="C24">
-        <v>0.6266974720141718</v>
+        <v>0.269174645198774</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03738374051132143</v>
+        <v>0.09730136780055554</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902313</v>
       </c>
       <c r="G24">
-        <v>1.199924152729068</v>
+        <v>1.194142138631605</v>
       </c>
       <c r="H24">
-        <v>0.704900992461944</v>
+        <v>1.114407219072206</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1998687815849394</v>
+        <v>0.2009013752772546</v>
       </c>
       <c r="M24">
-        <v>0.6341797743197333</v>
+        <v>0.3240300973735444</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.151727614252025</v>
+        <v>1.448064636123661</v>
       </c>
       <c r="C25">
-        <v>0.5293055036090948</v>
+        <v>0.2382734589961615</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03916210700246614</v>
+        <v>0.09834124016102574</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>1.051473956320805</v>
+        <v>1.182197653387277</v>
       </c>
       <c r="H25">
-        <v>0.655637213472275</v>
+        <v>1.120885420712156</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1697793120475879</v>
+        <v>0.1950796388662752</v>
       </c>
       <c r="M25">
-        <v>0.5175443770400037</v>
+        <v>0.2940496627697513</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_236/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_236/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.305921270099134</v>
+        <v>2.629343822536384</v>
       </c>
       <c r="C2">
-        <v>0.2152587901791208</v>
+        <v>0.4584368617708776</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09917698049238033</v>
+        <v>0.0405758218952601</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>1.1768764079997</v>
+        <v>0.9569553893211662</v>
       </c>
       <c r="H2">
-        <v>1.128060550239411</v>
+        <v>0.6271138697317298</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.191105749164862</v>
+        <v>0.1485834716484504</v>
       </c>
       <c r="M2">
-        <v>0.2723799715095581</v>
+        <v>0.4338108813226214</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.2105800307354</v>
+        <v>2.280573272529239</v>
       </c>
       <c r="C3">
-        <v>0.1994966497811959</v>
+        <v>0.4107032145240055</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09978732481234609</v>
+        <v>0.04159777639765938</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>1.175406406532517</v>
+        <v>0.9005361085628181</v>
       </c>
       <c r="H3">
-        <v>1.134412510248467</v>
+        <v>0.6118875171778484</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1886071104622502</v>
+        <v>0.1347071365592072</v>
       </c>
       <c r="M3">
-        <v>0.2579451600480311</v>
+        <v>0.3780706487080039</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.152527770935308</v>
+        <v>2.068451070928347</v>
       </c>
       <c r="C4">
-        <v>0.1897371273770716</v>
+        <v>0.3814736736626685</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1001838364091892</v>
+        <v>0.0422564083688125</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>1.175547655107906</v>
+        <v>0.8691947366294812</v>
       </c>
       <c r="H4">
-        <v>1.139043655788385</v>
+        <v>0.6043481682348357</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1871687783696316</v>
+        <v>0.1263955503261656</v>
       </c>
       <c r="M4">
-        <v>0.2492056783358407</v>
+        <v>0.3442457673814161</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.128994022145889</v>
+        <v>1.982442508255872</v>
       </c>
       <c r="C5">
-        <v>0.1857395975149814</v>
+        <v>0.3695734944832907</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1003508996730308</v>
+        <v>0.04253258769537993</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>1.175866309931621</v>
+        <v>0.8571889056426159</v>
       </c>
       <c r="H5">
-        <v>1.14111419861193</v>
+        <v>0.6017014829633212</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1866067537436464</v>
+        <v>0.1230565720760026</v>
       </c>
       <c r="M5">
-        <v>0.2456753893139592</v>
+        <v>0.3305493926276384</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.125093703362666</v>
+        <v>1.968184887666325</v>
       </c>
       <c r="C6">
-        <v>0.1850745774457323</v>
+        <v>0.3675979057397853</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1003789717804285</v>
+        <v>0.04257891562418459</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>1.175934951233671</v>
+        <v>0.855239831466335</v>
       </c>
       <c r="H6">
-        <v>1.141469067531432</v>
+        <v>0.6012868915252625</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1865148862422075</v>
+        <v>0.1225049179244166</v>
       </c>
       <c r="M6">
-        <v>0.2450910687807593</v>
+        <v>0.3282800454923844</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.152209887930553</v>
+        <v>2.067289472679192</v>
       </c>
       <c r="C7">
-        <v>0.1896832980009719</v>
+        <v>0.3813131498521329</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.100186067274169</v>
+        <v>0.04226010157729176</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>1.175550897278384</v>
+        <v>0.8690298012619451</v>
       </c>
       <c r="H7">
-        <v>1.139070838304988</v>
+        <v>0.6043107879654883</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1871611010883925</v>
+        <v>0.126350330662099</v>
       </c>
       <c r="M7">
-        <v>0.2491579415439418</v>
+        <v>0.3440607153192445</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.272946597811767</v>
+        <v>2.508619844159227</v>
       </c>
       <c r="C8">
-        <v>0.2098409446449239</v>
+        <v>0.4419563374898132</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09938291769764662</v>
+        <v>0.04092169539330281</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>1.176152065784933</v>
+        <v>0.9367771478946594</v>
       </c>
       <c r="H8">
-        <v>1.130098677394571</v>
+        <v>0.6214698504762026</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1902243292102526</v>
+        <v>0.1437528900365521</v>
       </c>
       <c r="M8">
-        <v>0.2673772310109257</v>
+        <v>0.414500505015873</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.513577177098398</v>
+        <v>3.393922745859754</v>
       </c>
       <c r="C9">
-        <v>0.2487231174117142</v>
+        <v>0.5619483187874152</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09798010131798585</v>
+        <v>0.0385466831436071</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>1.18567754578207</v>
+        <v>1.098955209997598</v>
       </c>
       <c r="H9">
-        <v>1.118328112427434</v>
+        <v>0.6709231451413302</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1969920609151359</v>
+        <v>0.1797502946853839</v>
       </c>
       <c r="M9">
-        <v>0.3040855089522907</v>
+        <v>0.5564524635576049</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.692742716562236</v>
+        <v>4.062340762095118</v>
       </c>
       <c r="C10">
-        <v>0.2768981162372768</v>
+        <v>0.6514536579182959</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.09705372474671325</v>
+        <v>0.0369576446900115</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.197855598500269</v>
+        <v>1.240799672642964</v>
       </c>
       <c r="H10">
-        <v>1.113264191277864</v>
+        <v>0.7191078193960436</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2024293592131556</v>
+        <v>0.2076708781581971</v>
       </c>
       <c r="M10">
-        <v>0.3316561037249528</v>
+        <v>0.6640746293494431</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.774770753947621</v>
+        <v>4.37181169203825</v>
       </c>
       <c r="C11">
-        <v>0.2896314006033265</v>
+        <v>0.6926418917435626</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09665478927531357</v>
+        <v>0.03626955392629472</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.204540266743294</v>
+        <v>1.31146812474887</v>
       </c>
       <c r="H11">
-        <v>1.111746017384377</v>
+        <v>0.744160131874736</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.205004252476499</v>
+        <v>0.2207759326937264</v>
       </c>
       <c r="M11">
-        <v>0.3443301952085491</v>
+        <v>0.7140101892247941</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.805908138595839</v>
+        <v>4.489916483568038</v>
       </c>
       <c r="C12">
-        <v>0.2944411438116674</v>
+        <v>0.708323407523153</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0965069444256591</v>
+        <v>0.0360140869119</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>1.207237761854913</v>
+        <v>1.339226355411995</v>
       </c>
       <c r="H12">
-        <v>1.111284653026019</v>
+        <v>0.7541501439636136</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2059938970759561</v>
+        <v>0.2258043324607826</v>
       </c>
       <c r="M12">
-        <v>0.3491485569100092</v>
+        <v>0.7330836989354736</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.799198808132758</v>
+        <v>4.464437450785056</v>
       </c>
       <c r="C13">
-        <v>0.293405817266148</v>
+        <v>0.7049420717348767</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.09653864224130015</v>
+        <v>0.03606887787301394</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.206649393711757</v>
+        <v>1.333201791774172</v>
       </c>
       <c r="H13">
-        <v>1.111378957145007</v>
+        <v>0.7519753284647948</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2057801105451063</v>
+        <v>0.2247183178882182</v>
       </c>
       <c r="M13">
-        <v>0.3481099938574701</v>
+        <v>0.7289681821651044</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.777330940935144</v>
+        <v>4.381509063501653</v>
       </c>
       <c r="C14">
-        <v>0.290027343316325</v>
+        <v>0.6939302252314121</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09664256144061811</v>
+        <v>0.03624843372318676</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.20475885247285</v>
+        <v>1.313731115322554</v>
       </c>
       <c r="H14">
-        <v>1.111705781852351</v>
+        <v>0.744971606459842</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2050853787473272</v>
+        <v>0.2211882561268084</v>
       </c>
       <c r="M14">
-        <v>0.3447262249636793</v>
+        <v>0.7155759480272863</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.763946018523882</v>
+        <v>4.33083653193188</v>
       </c>
       <c r="C15">
-        <v>0.2879563566741581</v>
+        <v>0.6871966726990308</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09670663446294914</v>
+        <v>0.03635908390064857</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.203622525409202</v>
+        <v>1.301938300921478</v>
       </c>
       <c r="H15">
-        <v>1.111920774639941</v>
+        <v>0.7407488312136365</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2046617353664715</v>
+        <v>0.2190348043496613</v>
       </c>
       <c r="M15">
-        <v>0.3426560367490481</v>
+        <v>0.7073949151448815</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.687392523367123</v>
+        <v>4.042236278488531</v>
       </c>
       <c r="C16">
-        <v>0.2760642787260394</v>
+        <v>0.6487727759994186</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09708024766480927</v>
+        <v>0.03700332082042035</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>1.197441907287924</v>
+        <v>1.236314407746903</v>
       </c>
       <c r="H16">
-        <v>1.113379262856228</v>
+        <v>0.717538005891015</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2022631252080203</v>
+        <v>0.2068231999873831</v>
       </c>
       <c r="M16">
-        <v>0.3308304768457475</v>
+        <v>0.6608328382977007</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.640563602251916</v>
+        <v>3.866666726813435</v>
       </c>
       <c r="C17">
-        <v>0.2687474127482119</v>
+        <v>0.6253329811465562</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09731519800382427</v>
+        <v>0.03740751093195338</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.193944602280197</v>
+        <v>1.197706899865778</v>
       </c>
       <c r="H17">
-        <v>1.114475585448986</v>
+        <v>0.7041369951011518</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2008176373387585</v>
+        <v>0.1994404495079181</v>
       </c>
       <c r="M17">
-        <v>0.3236096832307425</v>
+        <v>0.6325347685936364</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.6136782526915</v>
+        <v>3.766183318640174</v>
       </c>
       <c r="C18">
-        <v>0.2645310724985563</v>
+        <v>0.6118943355509998</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09745245147887749</v>
+        <v>0.03764325664823054</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.192040708133845</v>
+        <v>1.176071497757789</v>
       </c>
       <c r="H18">
-        <v>1.115180054058754</v>
+        <v>0.6967204769920841</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1999957787090807</v>
+        <v>0.1952315885816063</v>
       </c>
       <c r="M18">
-        <v>0.3194689085144589</v>
+        <v>0.6163489451283652</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.604583830898662</v>
+        <v>3.73224321445025</v>
       </c>
       <c r="C19">
-        <v>0.2631021414604788</v>
+        <v>0.6073512054749415</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09749928688920784</v>
+        <v>0.03772363428752079</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.191414526845222</v>
+        <v>1.16884085085735</v>
       </c>
       <c r="H19">
-        <v>1.115431248201816</v>
+        <v>0.6942579067521706</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1997191513032277</v>
+        <v>0.1938127595392132</v>
       </c>
       <c r="M19">
-        <v>0.3180690501972094</v>
+        <v>0.6108835718915628</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.645543509707636</v>
+        <v>3.885303754816505</v>
       </c>
       <c r="C20">
-        <v>0.2695271207219605</v>
+        <v>0.6278235917055213</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09728996817996916</v>
+        <v>0.03736414548832667</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.194305742558697</v>
+        <v>1.20175689153325</v>
       </c>
       <c r="H20">
-        <v>1.114351228156607</v>
+        <v>0.7055330348885036</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.20097052382512</v>
+        <v>0.2002224212718744</v>
       </c>
       <c r="M20">
-        <v>0.3243770623592113</v>
+        <v>0.6355376210694885</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.783752026471916</v>
+        <v>4.405841135237495</v>
       </c>
       <c r="C21">
-        <v>0.2910200110618746</v>
+        <v>0.6971622379210487</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0966119504426175</v>
+        <v>0.03619555461524038</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.205309628586974</v>
+        <v>1.319422073005569</v>
       </c>
       <c r="H21">
-        <v>1.111606699477051</v>
+        <v>0.7470146606739263</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2052890423736642</v>
+        <v>0.2222232692057702</v>
       </c>
       <c r="M21">
-        <v>0.3457196056540326</v>
+        <v>0.7195049211988405</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.874517172741719</v>
+        <v>4.751450705489958</v>
       </c>
       <c r="C22">
-        <v>0.3049964561109846</v>
+        <v>0.7429803667397721</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09618761074574</v>
+        <v>0.03546158301866853</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>1.213470504556483</v>
+        <v>1.402200927563484</v>
       </c>
       <c r="H22">
-        <v>1.110475037205362</v>
+        <v>0.7770876585293536</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2081964777498797</v>
+        <v>0.2369898517106463</v>
       </c>
       <c r="M22">
-        <v>0.3597786813909281</v>
+        <v>0.7753511587135051</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.8260341339452</v>
+        <v>4.566447754056185</v>
       </c>
       <c r="C23">
-        <v>0.2975434196389131</v>
+        <v>0.718474473714565</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09641237301511685</v>
+        <v>0.03585055775074453</v>
       </c>
       <c r="F23">
-        <v>0.7472568307915566</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>1.209025701917199</v>
+        <v>1.357441149866247</v>
       </c>
       <c r="H23">
-        <v>1.111018253386931</v>
+        <v>0.7607470075444667</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2066369433694746</v>
+        <v>0.2290703867919461</v>
       </c>
       <c r="M23">
-        <v>0.3522649890321645</v>
+        <v>0.7454478816554087</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.643291977587296</v>
+        <v>3.876876550976931</v>
       </c>
       <c r="C24">
-        <v>0.269174645198774</v>
+        <v>0.6266974720142571</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09730136780055554</v>
+        <v>0.03738374051133053</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902313</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.194142138631605</v>
+        <v>1.199924152729096</v>
       </c>
       <c r="H24">
-        <v>1.114407219072206</v>
+        <v>0.7049009924619156</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2009013752772546</v>
+        <v>0.1998687815849252</v>
       </c>
       <c r="M24">
-        <v>0.3240300973735444</v>
+        <v>0.6341797743197404</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.448064636123661</v>
+        <v>3.151727614252081</v>
       </c>
       <c r="C25">
-        <v>0.2382734589961615</v>
+        <v>0.5293055036091232</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09834124016102574</v>
+        <v>0.03916210700246847</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>1.182197653387277</v>
+        <v>1.051473956320748</v>
       </c>
       <c r="H25">
-        <v>1.120885420712156</v>
+        <v>0.6556372134721613</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1950796388662752</v>
+        <v>0.1697793120475453</v>
       </c>
       <c r="M25">
-        <v>0.2940496627697513</v>
+        <v>0.5175443770400108</v>
       </c>
       <c r="N25">
         <v>0</v>
